--- a/OpenMRS_DDT/TC_DataSources/Main.rvl.xlsx
+++ b/OpenMRS_DDT/TC_DataSources/Main.rvl.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="143">
   <si>
     <t>Flow</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>Generator</t>
+  </si>
+  <si>
+    <t>TC_DataSources\Data.txt</t>
+  </si>
+  <si>
+    <t>TC_DataSources\Data.xml</t>
+  </si>
+  <si>
+    <t>TC_DataSources\Data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -7256,7 +7265,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="220" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="H4" s="221"/>
     </row>
@@ -8246,7 +8255,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="876" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="H4" s="877"/>
     </row>
@@ -10031,7 +10040,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="1902" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="H19" s="1903"/>
     </row>
